--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21795.21913665301</v>
+        <v>1457922.755978572</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21795.21913665301</v>
+        <v>1457922.755978572</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419052954.373185</v>
+        <v>57104251.47967264</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12498.30157893308</v>
+        <v>1316883.82609229</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24079.36082824287</v>
+        <v>2481807.588399939</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35660.42007755264</v>
+        <v>3646731.35070759</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47847.28312940121</v>
+        <v>4772898.528296514</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60034.14618124975</v>
+        <v>5899065.705885439</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72221.00923309829</v>
+        <v>7025232.883474361</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84407.87228494682</v>
+        <v>8151400.06106328</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96594.73533679536</v>
+        <v>9277567.238652201</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108576.063415121</v>
+        <v>10405340.30436758</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120578.7733116254</v>
+        <v>11537368.35190141</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132581.4832081316</v>
+        <v>12669396.39943529</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144584.1931046383</v>
+        <v>13801424.44696908</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156586.9030011424</v>
+        <v>14933452.49450302</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169178.6730604002</v>
+        <v>16007791.29568609</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181770.4431196581</v>
+        <v>17082130.09686915</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>-5.513950433232821e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
